--- a/Информатика/лаб5/Lab5.xlsx
+++ b/Информатика/лаб5/Lab5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,215 +39,215 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="68">
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>переполнение</t>
+  </si>
+  <si>
+    <t>16-разрядный двоичный формат со знаком</t>
+  </si>
+  <si>
     <t>X1</t>
   </si>
   <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>X2</t>
   </si>
   <si>
+    <t>B2</t>
+  </si>
+  <si>
     <t>X3</t>
   </si>
   <si>
+    <t>A + C</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
     <t>X4</t>
   </si>
   <si>
+    <t>A + C + C</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
     <t>X5</t>
   </si>
   <si>
+    <t xml:space="preserve">C - A </t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
     <t>X6</t>
   </si>
   <si>
+    <t>65536 - X4</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
     <t>X7</t>
   </si>
   <si>
+    <t>-X1</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>ДК</t>
+  </si>
+  <si>
     <t>X8</t>
   </si>
   <si>
+    <t>-X2</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
     <t>X9</t>
   </si>
   <si>
+    <t>-X3</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
     <t>X10</t>
   </si>
   <si>
+    <t>-X4</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
     <t>X11</t>
   </si>
   <si>
+    <t>-X5</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
     <t>X12</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>A + C</t>
-  </si>
-  <si>
-    <t>A + C + C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C - A </t>
-  </si>
-  <si>
-    <t>65536 - X4</t>
-  </si>
-  <si>
-    <t>-X1</t>
-  </si>
-  <si>
-    <t>-X3</t>
-  </si>
-  <si>
-    <t>-X5</t>
-  </si>
-  <si>
-    <t>-X2</t>
-  </si>
-  <si>
-    <t>-X4</t>
-  </si>
-  <si>
     <t>-X6</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
     <t>B12</t>
   </si>
   <si>
-    <t>+/-</t>
-  </si>
-  <si>
-    <t>переполнение</t>
-  </si>
-  <si>
-    <t>16-разрядный двоичный формат со знаком</t>
+    <t>B1+B2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>При сложении двух положительных слагаемых получено положительное число. Результат выполнения операции совпадает с результатом сложения десятичных эквивалентов</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>ОДЗ:</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>B1+B2</t>
+    <t>------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>--------------------</t>
+  </si>
+  <si>
+    <t>(2)    =</t>
+  </si>
+  <si>
+    <t>CF=</t>
+  </si>
+  <si>
+    <t>PF=</t>
+  </si>
+  <si>
+    <t>AF=</t>
+  </si>
+  <si>
+    <t>ZF=</t>
+  </si>
+  <si>
+    <t>SF=</t>
+  </si>
+  <si>
+    <t>OF=</t>
   </si>
   <si>
     <t>B2+B3</t>
   </si>
   <si>
+    <t>При сложении двух положительных слагаемых получено положительное число, не удовлетворяющее ОДЗ. Поэтому результат выполнения операции не совпадает с результатом сложения десятичных эквивалентов</t>
+  </si>
+  <si>
     <t>B2+B7</t>
   </si>
   <si>
+    <t>Результат сложения положитлеьного и отрицательного чисел совпадает с результатом сложения десятичных эквивалентов, так как лежит в ОДЗ</t>
+  </si>
+  <si>
     <t>B7+B8</t>
   </si>
   <si>
+    <t>При сложении двух отрицательных чисел в результате получаем дополнительный код. Значение лежит в ОДЗ, поэтому, переводя в прямой код, результат соответствует сложению десятичных эквивалентов</t>
+  </si>
+  <si>
+    <t>ПК</t>
+  </si>
+  <si>
     <t>B8+B9</t>
   </si>
   <si>
+    <t>При сложении двух отрицательных слагаемых получено отрицательное число, не удовлетворяющее ОДЗ. Поэтому результат выполнения операции не совпадает с результатом сложения десятичных эквивалентов</t>
+  </si>
+  <si>
     <t>B1+B8</t>
   </si>
   <si>
     <t>B11+B3</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>(2)    =</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>--------------------</t>
-  </si>
-  <si>
-    <t>ZF=</t>
-  </si>
-  <si>
-    <t>OF=</t>
-  </si>
-  <si>
-    <t>SF=</t>
-  </si>
-  <si>
-    <t>PF=</t>
-  </si>
-  <si>
-    <t>AF=</t>
-  </si>
-  <si>
-    <t>CF=</t>
-  </si>
-  <si>
-    <t>При сложении двух положительных слагаемых получено положительное число. Результат выполнения операции совпадает с результатом сложения десятичных эквивалентов</t>
-  </si>
-  <si>
-    <t>Результат сложения положитлеьного и отрицательного чисел совпадает с результатом сложения десятичных эквивалентов, так как лежит в ОДЗ</t>
-  </si>
-  <si>
-    <t>ДК</t>
-  </si>
-  <si>
-    <t>ПК</t>
-  </si>
-  <si>
-    <t>При сложении двух отрицательных чисел в результате получаем дополнительный код. Значение лежит в ОДЗ, поэтому, переводя в прямой код, результат соответствует сложению десятичных эквивалентов</t>
-  </si>
-  <si>
-    <t>При сложении двух положительных слагаемых получено положительное число, не удовлетворяющее ОДЗ. Поэтому результат выполнения операции не совпадает с результатом сложения десятичных эквивалентов</t>
-  </si>
-  <si>
-    <t>При сложении двух отрицательных слагаемых получено отрицательное число, не удовлетворяющее ОДЗ. Поэтому результат выполнения операции не совпадает с результатом сложения десятичных эквивалентов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,13 +453,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,49 +501,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
         <i/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -559,20 +529,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -589,14 +545,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -634,7 +586,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -740,7 +692,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -896,33 +848,33 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
-    <col min="11" max="15" width="3.33203125" customWidth="1"/>
-    <col min="16" max="16" width="3.88671875" customWidth="1"/>
-    <col min="17" max="24" width="3.33203125" customWidth="1"/>
-    <col min="25" max="25" width="3.6640625" customWidth="1"/>
-    <col min="26" max="26" width="3.33203125" customWidth="1"/>
-    <col min="27" max="27" width="3.109375" customWidth="1"/>
-    <col min="28" max="28" width="2.5546875" customWidth="1"/>
-    <col min="29" max="29" width="1.21875" customWidth="1"/>
-    <col min="30" max="35" width="7.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="11" max="15" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="24" width="3.28515625" customWidth="1"/>
+    <col min="25" max="25" width="3.7109375" customWidth="1"/>
+    <col min="26" max="26" width="3.28515625" customWidth="1"/>
+    <col min="27" max="27" width="3.140625" customWidth="1"/>
+    <col min="28" max="28" width="2.5703125" customWidth="1"/>
+    <col min="29" max="29" width="1.28515625" customWidth="1"/>
+    <col min="30" max="35" width="7.28515625" customWidth="1"/>
     <col min="36" max="36" width="68" customWidth="1"/>
-    <col min="37" max="77" width="7.21875" customWidth="1"/>
+    <col min="37" max="77" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="21">
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20">
         <v>10299</v>
       </c>
       <c r="D1" s="1"/>
@@ -959,12 +911,12 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
         <v>21882</v>
       </c>
       <c r="D2" s="1"/>
@@ -1031,21 +983,21 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>65536</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>38</v>
+      <c r="E3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="2">
@@ -1109,773 +1061,773 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="14">
+    <row r="4" spans="1:36">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
         <f>C1</f>
         <v>10299</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <f t="shared" ref="E4:E15" si="0">IF(C4&gt;0,0,1)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <f t="shared" ref="F4:F15" si="1">IF(ABS(C4)&lt;32768,0,1)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="str">
+      <c r="G4" s="15" t="str">
         <f>IF(F4=1,"Не удовлетворяет ОДЗ",_xlfn.BASE(C4,2,16))</f>
         <v>0010100000111011</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="16" t="str">
+      <c r="H4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="15" t="str">
         <f>MID($G4,I$3,1)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="16" t="str">
+      <c r="J4" s="15" t="str">
         <f>MID($G4,J$3,1)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="16" t="str">
+      <c r="K4" s="15" t="str">
         <f>MID($G4,K$3,1)</f>
         <v>1</v>
       </c>
-      <c r="L4" s="16" t="str">
+      <c r="L4" s="15" t="str">
         <f>MID($G4,L$3,1)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="16" t="str">
+      <c r="M4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="15" t="str">
         <f>MID($G4,N$3,1)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="16" t="str">
+      <c r="O4" s="15" t="str">
         <f>MID($G4,O$3,1)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="16" t="str">
+      <c r="P4" s="15" t="str">
         <f>MID($G4,P$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="16" t="str">
+      <c r="Q4" s="15" t="str">
         <f>MID($G4,Q$3,1)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="16" t="str">
+      <c r="R4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="15" t="str">
         <f>MID($G4,S$3,1)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="16" t="str">
+      <c r="T4" s="15" t="str">
         <f>MID($G4,T$3,1)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="16" t="str">
+      <c r="U4" s="15" t="str">
         <f>MID($G4,U$3,1)</f>
         <v>1</v>
       </c>
-      <c r="V4" s="16" t="str">
+      <c r="V4" s="15" t="str">
         <f>MID($G4,V$3,1)</f>
         <v>1</v>
       </c>
-      <c r="W4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="16" t="str">
+      <c r="W4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="15" t="str">
         <f>MID($G4,X$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Y4" s="16" t="str">
+      <c r="Y4" s="15" t="str">
         <f>MID($G4,Y$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="16" t="str">
+      <c r="Z4" s="15" t="str">
         <f>MID($G4,Z$3,1)</f>
         <v>1</v>
       </c>
-      <c r="AA4" s="16" t="str">
+      <c r="AA4" s="15" t="str">
         <f>MID($G4,AA$3,1)</f>
         <v>1</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="22">
+      <c r="AD4" s="21">
         <f>IF(I4="0",1,-1)*(AA4*2^$AA$2+Z4*2^$Z$2+Y4*2^$Y$2+X4*2^$X$2+V4*2^$V$2+U4*2^$U$2+T4*2^$T$2+S4*2^$S$2+Q4*2^$Q$2+P4*2^$P$2+O4*2^$O$2+N4*2^$N$2+L4*2^$L$2+K4*2^$K$2+J4*2^$J$2)</f>
         <v>10299</v>
       </c>
-      <c r="AE4" s="22"/>
+      <c r="AE4" s="21"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14">
+    <row r="5" spans="1:36">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
         <f>C2</f>
         <v>21882</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="16" t="str">
+      <c r="G5" s="15" t="str">
         <f>IF(F5=1,"Не удовлетворяет ОДЗ",_xlfn.BASE(C5,2,16))</f>
         <v>0101010101111010</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="16" t="str">
+      <c r="H5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="15" t="str">
         <f>MID($G5,I$3,1)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="16" t="str">
+      <c r="J5" s="15" t="str">
         <f>MID($G5,J$3,1)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="str">
+      <c r="K5" s="15" t="str">
         <f>MID($G5,K$3,1)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="16" t="str">
+      <c r="L5" s="15" t="str">
         <f>MID($G5,L$3,1)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="16" t="str">
+      <c r="M5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="15" t="str">
         <f>MID($G5,N$3,1)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="16" t="str">
+      <c r="O5" s="15" t="str">
         <f>MID($G5,O$3,1)</f>
         <v>1</v>
       </c>
-      <c r="P5" s="16" t="str">
+      <c r="P5" s="15" t="str">
         <f>MID($G5,P$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="16" t="str">
+      <c r="Q5" s="15" t="str">
         <f>MID($G5,Q$3,1)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="16" t="str">
+      <c r="R5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="15" t="str">
         <f>MID($G5,S$3,1)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="16" t="str">
+      <c r="T5" s="15" t="str">
         <f>MID($G5,T$3,1)</f>
         <v>1</v>
       </c>
-      <c r="U5" s="16" t="str">
+      <c r="U5" s="15" t="str">
         <f>MID($G5,U$3,1)</f>
         <v>1</v>
       </c>
-      <c r="V5" s="16" t="str">
+      <c r="V5" s="15" t="str">
         <f>MID($G5,V$3,1)</f>
         <v>1</v>
       </c>
-      <c r="W5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="16" t="str">
+      <c r="W5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="15" t="str">
         <f>MID($G5,X$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Y5" s="16" t="str">
+      <c r="Y5" s="15" t="str">
         <f>MID($G5,Y$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="16" t="str">
+      <c r="Z5" s="15" t="str">
         <f>MID($G5,Z$3,1)</f>
         <v>1</v>
       </c>
-      <c r="AA5" s="16" t="str">
+      <c r="AA5" s="15" t="str">
         <f>MID($G5,AA$3,1)</f>
         <v>0</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="22">
+      <c r="AD5" s="21">
         <f>IF(I5="0",1,-1)*(AA5*2^$AA$2+Z5*2^$Z$2+Y5*2^$Y$2+X5*2^$X$2+V5*2^$V$2+U5*2^$U$2+T5*2^$T$2+S5*2^$S$2+Q5*2^$Q$2+P5*2^$P$2+O5*2^$O$2+N5*2^$N$2+L5*2^$L$2+K5*2^$K$2+J5*2^$J$2)</f>
         <v>21882</v>
       </c>
-      <c r="AE5" s="22"/>
+      <c r="AE5" s="21"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14">
+    <row r="6" spans="1:36">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13">
         <f>C4+C5</f>
         <v>32181</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="16" t="str">
+      <c r="G6" s="15" t="str">
         <f>IF(F6=1,"Не удовлетворяет ОДЗ",_xlfn.BASE(C6,2,16))</f>
         <v>0111110110110101</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="16" t="str">
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="15" t="str">
         <f>MID($G6,I$3,1)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="16" t="str">
+      <c r="J6" s="15" t="str">
         <f>MID($G6,J$3,1)</f>
         <v>1</v>
       </c>
-      <c r="K6" s="16" t="str">
+      <c r="K6" s="15" t="str">
         <f>MID($G6,K$3,1)</f>
         <v>1</v>
       </c>
-      <c r="L6" s="16" t="str">
+      <c r="L6" s="15" t="str">
         <f>MID($G6,L$3,1)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="16" t="str">
+      <c r="M6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="15" t="str">
         <f>MID($G6,N$3,1)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="16" t="str">
+      <c r="O6" s="15" t="str">
         <f>MID($G6,O$3,1)</f>
         <v>1</v>
       </c>
-      <c r="P6" s="16" t="str">
+      <c r="P6" s="15" t="str">
         <f>MID($G6,P$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="16" t="str">
+      <c r="Q6" s="15" t="str">
         <f>MID($G6,Q$3,1)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="16" t="str">
+      <c r="R6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="15" t="str">
         <f>MID($G6,S$3,1)</f>
         <v>1</v>
       </c>
-      <c r="T6" s="16" t="str">
+      <c r="T6" s="15" t="str">
         <f>MID($G6,T$3,1)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="16" t="str">
+      <c r="U6" s="15" t="str">
         <f>MID($G6,U$3,1)</f>
         <v>1</v>
       </c>
-      <c r="V6" s="16" t="str">
+      <c r="V6" s="15" t="str">
         <f>MID($G6,V$3,1)</f>
         <v>1</v>
       </c>
-      <c r="W6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="16" t="str">
+      <c r="W6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="15" t="str">
         <f>MID($G6,X$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="16" t="str">
+      <c r="Y6" s="15" t="str">
         <f>MID($G6,Y$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="16" t="str">
+      <c r="Z6" s="15" t="str">
         <f>MID($G6,Z$3,1)</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="16" t="str">
+      <c r="AA6" s="15" t="str">
         <f>MID($G6,AA$3,1)</f>
         <v>1</v>
       </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="22">
+      <c r="AD6" s="21">
         <f>IF(I6="0",1,-1)*(AA6*2^$AA$2+Z6*2^$Z$2+Y6*2^$Y$2+X6*2^$X$2+V6*2^$V$2+U6*2^$U$2+T6*2^$T$2+S6*2^$S$2+Q6*2^$Q$2+P6*2^$P$2+O6*2^$O$2+N6*2^$N$2+L6*2^$L$2+K6*2^$K$2+J6*2^$J$2)</f>
         <v>32181</v>
       </c>
-      <c r="AE6" s="22"/>
+      <c r="AE6" s="21"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14">
+    <row r="7" spans="1:36">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13">
         <f>C4+C5+C5</f>
         <v>54063</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(F7=1,"Не удовлетворяет ОДЗ",_xlfn.BASE(C7,2,16))</f>
         <v>Не удовлетворяет ОДЗ</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="H7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="16">
         <v>2</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <v>2</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <v>2</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>2</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>2</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <v>2</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="16">
         <v>2</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <v>2</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <v>2</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>2</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="16">
         <v>2</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="16">
         <v>2</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="16">
         <v>2</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="16">
         <v>2</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="16">
         <v>2</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="16">
         <v>2</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="16">
         <v>2</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="16">
         <v>2</v>
       </c>
-      <c r="AA7" s="17">
+      <c r="AA7" s="16">
         <v>2</v>
       </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:36">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14">
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13">
         <f>C5-C4</f>
         <v>11583</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="15" t="str">
         <f>IF(F8=1,"Не удовлетворяет ОДЗ",_xlfn.BASE(C8,2,16))</f>
         <v>0010110100111111</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="16" t="str">
+      <c r="H8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="15" t="str">
         <f>MID($G8,I$3,1)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="16" t="str">
+      <c r="J8" s="15" t="str">
         <f>MID($G8,J$3,1)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="16" t="str">
+      <c r="K8" s="15" t="str">
         <f>MID($G8,K$3,1)</f>
         <v>1</v>
       </c>
-      <c r="L8" s="16" t="str">
+      <c r="L8" s="15" t="str">
         <f>MID($G8,L$3,1)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="16" t="str">
+      <c r="M8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="15" t="str">
         <f>MID($G8,N$3,1)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="16" t="str">
+      <c r="O8" s="15" t="str">
         <f>MID($G8,O$3,1)</f>
         <v>1</v>
       </c>
-      <c r="P8" s="16" t="str">
+      <c r="P8" s="15" t="str">
         <f>MID($G8,P$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="16" t="str">
+      <c r="Q8" s="15" t="str">
         <f>MID($G8,Q$3,1)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="16" t="str">
+      <c r="R8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="15" t="str">
         <f>MID($G8,S$3,1)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="16" t="str">
+      <c r="T8" s="15" t="str">
         <f>MID($G8,T$3,1)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="16" t="str">
+      <c r="U8" s="15" t="str">
         <f>MID($G8,U$3,1)</f>
         <v>1</v>
       </c>
-      <c r="V8" s="16" t="str">
+      <c r="V8" s="15" t="str">
         <f>MID($G8,V$3,1)</f>
         <v>1</v>
       </c>
-      <c r="W8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="16" t="str">
+      <c r="W8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="15" t="str">
         <f>MID($G8,X$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Y8" s="16" t="str">
+      <c r="Y8" s="15" t="str">
         <f>MID($G8,Y$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Z8" s="16" t="str">
+      <c r="Z8" s="15" t="str">
         <f>MID($G8,Z$3,1)</f>
         <v>1</v>
       </c>
-      <c r="AA8" s="16" t="str">
+      <c r="AA8" s="15" t="str">
         <f>MID($G8,AA$3,1)</f>
         <v>1</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="22">
+      <c r="AD8" s="21">
         <f>IF(I8="0",1,-1)*(AA8*2^$AA$2+Z8*2^$Z$2+Y8*2^$Y$2+X8*2^$X$2+V8*2^$V$2+U8*2^$U$2+T8*2^$T$2+S8*2^$S$2+Q8*2^$Q$2+P8*2^$P$2+O8*2^$O$2+N8*2^$N$2+L8*2^$L$2+K8*2^$K$2+J8*2^$J$2)</f>
         <v>11583</v>
       </c>
-      <c r="AE8" s="22"/>
+      <c r="AE8" s="21"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="14">
+    <row r="9" spans="1:36">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13">
         <f>65536-C7</f>
         <v>11473</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="15" t="str">
         <f>IF(F9=1,"Не удовлетворяет ОДЗ",_xlfn.BASE(C9,2,16))</f>
         <v>0010110011010001</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="16" t="str">
+      <c r="H9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="15" t="str">
         <f>MID($G9,I$3,1)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="16" t="str">
+      <c r="J9" s="15" t="str">
         <f>MID($G9,J$3,1)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="16" t="str">
+      <c r="K9" s="15" t="str">
         <f>MID($G9,K$3,1)</f>
         <v>1</v>
       </c>
-      <c r="L9" s="16" t="str">
+      <c r="L9" s="15" t="str">
         <f>MID($G9,L$3,1)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="16" t="str">
+      <c r="M9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="15" t="str">
         <f>MID($G9,N$3,1)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="16" t="str">
+      <c r="O9" s="15" t="str">
         <f>MID($G9,O$3,1)</f>
         <v>1</v>
       </c>
-      <c r="P9" s="16" t="str">
+      <c r="P9" s="15" t="str">
         <f>MID($G9,P$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="16" t="str">
+      <c r="Q9" s="15" t="str">
         <f>MID($G9,Q$3,1)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="16" t="str">
+      <c r="R9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="15" t="str">
         <f>MID($G9,S$3,1)</f>
         <v>1</v>
       </c>
-      <c r="T9" s="16" t="str">
+      <c r="T9" s="15" t="str">
         <f>MID($G9,T$3,1)</f>
         <v>1</v>
       </c>
-      <c r="U9" s="16" t="str">
+      <c r="U9" s="15" t="str">
         <f>MID($G9,U$3,1)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="16" t="str">
+      <c r="V9" s="15" t="str">
         <f>MID($G9,V$3,1)</f>
         <v>1</v>
       </c>
-      <c r="W9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="16" t="str">
+      <c r="W9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="15" t="str">
         <f>MID($G9,X$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="16" t="str">
+      <c r="Y9" s="15" t="str">
         <f>MID($G9,Y$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="16" t="str">
+      <c r="Z9" s="15" t="str">
         <f>MID($G9,Z$3,1)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="16" t="str">
+      <c r="AA9" s="15" t="str">
         <f>MID($G9,AA$3,1)</f>
         <v>1</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="22">
+      <c r="AD9" s="21">
         <f>IF(I9="0",1,-1)*(AA9*2^$AA$2+Z9*2^$Z$2+Y9*2^$Y$2+X9*2^$X$2+V9*2^$V$2+U9*2^$U$2+T9*2^$T$2+S9*2^$S$2+Q9*2^$Q$2+P9*2^$P$2+O9*2^$O$2+N9*2^$N$2+L9*2^$L$2+K9*2^$K$2+J9*2^$J$2)</f>
         <v>11473</v>
       </c>
-      <c r="AE9" s="22"/>
+      <c r="AE9" s="21"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="14">
+    <row r="10" spans="1:36">
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="13">
         <f t="shared" ref="C10:C15" si="2">-C4</f>
         <v>-10299</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="15" t="str">
         <f>IF(F10=0,_xlfn.BASE($C$3-C4,2,16),"Не удовлетворяет ОДЗ")</f>
         <v>1101011111000101</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="16" t="str">
+      <c r="H10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="15" t="str">
         <f>MID($G10,I$3,1)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="16" t="str">
+      <c r="J10" s="15" t="str">
         <f>MID($G10,J$3,1)</f>
         <v>1</v>
       </c>
-      <c r="K10" s="18" t="str">
+      <c r="K10" s="17" t="str">
         <f>MID($G10,K$3,1)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="16" t="str">
+      <c r="L10" s="15" t="str">
         <f>MID($G10,L$3,1)</f>
         <v>1</v>
       </c>
-      <c r="M10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="18" t="str">
+      <c r="M10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="17" t="str">
         <f>MID($G10,N$3,1)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="16" t="str">
+      <c r="O10" s="15" t="str">
         <f>MID($G10,O$3,1)</f>
         <v>1</v>
       </c>
-      <c r="P10" s="16" t="str">
+      <c r="P10" s="15" t="str">
         <f>MID($G10,P$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="18" t="str">
+      <c r="Q10" s="17" t="str">
         <f>MID($G10,Q$3,1)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="16" t="str">
+      <c r="R10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" s="15" t="str">
         <f>MID($G10,S$3,1)</f>
         <v>1</v>
       </c>
-      <c r="T10" s="18" t="str">
+      <c r="T10" s="17" t="str">
         <f>MID($G10,T$3,1)</f>
         <v>1</v>
       </c>
-      <c r="U10" s="16" t="str">
+      <c r="U10" s="15" t="str">
         <f>MID($G10,U$3,1)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="16" t="str">
+      <c r="V10" s="15" t="str">
         <f>MID($G10,V$3,1)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="X10" s="16" t="str">
+      <c r="W10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="15" t="str">
         <f>MID($G10,X$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="16" t="str">
+      <c r="Y10" s="15" t="str">
         <f>MID($G10,Y$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Z10" s="18" t="str">
+      <c r="Z10" s="17" t="str">
         <f>MID($G10,Z$3,1)</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="16" t="str">
+      <c r="AA10" s="15" t="str">
         <f>MID($G10,AA$3,1)</f>
         <v>1</v>
       </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="22">
+      <c r="AD10" s="21">
         <f>IF(I10="0",1,-1)*(AA10*2^$AA$2+Z10*2^$Z$2+Y10*2^$Y$2+X10*2^$X$2+V10*2^$V$2+U10*2^$U$2+T10*2^$T$2+S10*2^$S$2+Q10*2^$Q$2+P10*2^$P$2+O10*2^$O$2+N10*2^$N$2+L10*2^$L$2+K10*2^$K$2+J10*2^$J$2)</f>
         <v>-22469</v>
       </c>
-      <c r="AE10" s="22" t="s">
-        <v>63</v>
+      <c r="AE10" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
@@ -1883,114 +1835,114 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="14">
+    <row r="11" spans="1:36">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="13">
         <f t="shared" si="2"/>
         <v>-21882</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="15" t="str">
         <f>IF(F11=0,_xlfn.BASE($C$3-C5,2,16),"Не удовлетворяет ОДЗ")</f>
         <v>1010101010000110</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="16" t="str">
+      <c r="H11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="15" t="str">
         <f>MID($G11,I$3,1)</f>
         <v>1</v>
       </c>
-      <c r="J11" s="16" t="str">
+      <c r="J11" s="15" t="str">
         <f>MID($G11,J$3,1)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="18" t="str">
+      <c r="K11" s="17" t="str">
         <f>MID($G11,K$3,1)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="16" t="str">
+      <c r="L11" s="15" t="str">
         <f>MID($G11,L$3,1)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11" s="18" t="str">
+      <c r="M11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="17" t="str">
         <f>MID($G11,N$3,1)</f>
         <v>1</v>
       </c>
-      <c r="O11" s="16" t="str">
+      <c r="O11" s="15" t="str">
         <f>MID($G11,O$3,1)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="16" t="str">
+      <c r="P11" s="15" t="str">
         <f>MID($G11,P$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="18" t="str">
+      <c r="Q11" s="17" t="str">
         <f>MID($G11,Q$3,1)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="16" t="str">
+      <c r="R11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="15" t="str">
         <f>MID($G11,S$3,1)</f>
         <v>1</v>
       </c>
-      <c r="T11" s="18" t="str">
+      <c r="T11" s="17" t="str">
         <f>MID($G11,T$3,1)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="16" t="str">
+      <c r="U11" s="15" t="str">
         <f>MID($G11,U$3,1)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="16" t="str">
+      <c r="V11" s="15" t="str">
         <f>MID($G11,V$3,1)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="X11" s="16" t="str">
+      <c r="W11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="15" t="str">
         <f>MID($G11,X$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="16" t="str">
+      <c r="Y11" s="15" t="str">
         <f>MID($G11,Y$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Z11" s="18" t="str">
+      <c r="Z11" s="17" t="str">
         <f>MID($G11,Z$3,1)</f>
         <v>1</v>
       </c>
-      <c r="AA11" s="16" t="str">
+      <c r="AA11" s="15" t="str">
         <f>MID($G11,AA$3,1)</f>
         <v>0</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="22">
+      <c r="AD11" s="21">
         <f>IF(I11="0",1,-1)*(AA11*2^$AA$2+Z11*2^$Z$2+Y11*2^$Y$2+X11*2^$X$2+V11*2^$V$2+U11*2^$U$2+T11*2^$T$2+S11*2^$S$2+Q11*2^$Q$2+P11*2^$P$2+O11*2^$O$2+N11*2^$N$2+L11*2^$L$2+K11*2^$K$2+J11*2^$J$2)</f>
         <v>-10886</v>
       </c>
-      <c r="AE11" s="22" t="s">
-        <v>63</v>
+      <c r="AE11" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
@@ -1998,114 +1950,114 @@
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="14">
+    <row r="12" spans="1:36">
+      <c r="A12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13">
         <f t="shared" si="2"/>
         <v>-32181</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="15" t="str">
         <f>IF(F12=0,_xlfn.BASE($C$3-C6,2,16),"Не удовлетворяет ОДЗ")</f>
         <v>1000001001001011</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="16" t="str">
+      <c r="H12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="15" t="str">
         <f>MID($G12,I$3,1)</f>
         <v>1</v>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="15" t="str">
         <f>MID($G12,J$3,1)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18" t="str">
+      <c r="K12" s="17" t="str">
         <f>MID($G12,K$3,1)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="16" t="str">
+      <c r="L12" s="15" t="str">
         <f>MID($G12,L$3,1)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="18" t="str">
+      <c r="M12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="17" t="str">
         <f>MID($G12,N$3,1)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="16" t="str">
+      <c r="O12" s="15" t="str">
         <f>MID($G12,O$3,1)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="16" t="str">
+      <c r="P12" s="15" t="str">
         <f>MID($G12,P$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="18" t="str">
+      <c r="Q12" s="17" t="str">
         <f>MID($G12,Q$3,1)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="16" t="str">
+      <c r="R12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="15" t="str">
         <f>MID($G12,S$3,1)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="18" t="str">
+      <c r="T12" s="17" t="str">
         <f>MID($G12,T$3,1)</f>
         <v>1</v>
       </c>
-      <c r="U12" s="16" t="str">
+      <c r="U12" s="15" t="str">
         <f>MID($G12,U$3,1)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="16" t="str">
+      <c r="V12" s="15" t="str">
         <f>MID($G12,V$3,1)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="X12" s="16" t="str">
+      <c r="W12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="15" t="str">
         <f>MID($G12,X$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Y12" s="16" t="str">
+      <c r="Y12" s="15" t="str">
         <f>MID($G12,Y$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="18" t="str">
+      <c r="Z12" s="17" t="str">
         <f>MID($G12,Z$3,1)</f>
         <v>1</v>
       </c>
-      <c r="AA12" s="16" t="str">
+      <c r="AA12" s="15" t="str">
         <f>MID($G12,AA$3,1)</f>
         <v>1</v>
       </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="22">
+      <c r="AD12" s="21">
         <f>IF(I12="0",1,-1)*(AA12*2^$AA$2+Z12*2^$Z$2+Y12*2^$Y$2+X12*2^$X$2+V12*2^$V$2+U12*2^$U$2+T12*2^$T$2+S12*2^$S$2+Q12*2^$Q$2+P12*2^$P$2+O12*2^$O$2+N12*2^$N$2+L12*2^$L$2+K12*2^$K$2+J12*2^$J$2)</f>
         <v>-587</v>
       </c>
-      <c r="AE12" s="22" t="s">
-        <v>63</v>
+      <c r="AE12" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
@@ -2113,95 +2065,95 @@
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="14">
+    <row r="13" spans="1:36">
+      <c r="A13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="13">
         <f t="shared" si="2"/>
         <v>-54063</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="15" t="str">
         <f>IF(F13=0,_xlfn.BASE($C$3-C7,2,16),"Не удовлетворяет ОДЗ")</f>
         <v>Не удовлетворяет ОДЗ</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="H13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="16">
         <v>2</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>2</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <v>2</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="16">
         <v>2</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>2</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <v>2</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O13" s="16">
         <v>2</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="16">
         <v>2</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="18">
         <v>2</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="16">
         <v>2</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="16">
         <v>2</v>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="18">
         <v>2</v>
       </c>
-      <c r="U13" s="17">
+      <c r="U13" s="16">
         <v>2</v>
       </c>
-      <c r="V13" s="17">
+      <c r="V13" s="16">
         <v>2</v>
       </c>
-      <c r="W13" s="19">
+      <c r="W13" s="18">
         <v>2</v>
       </c>
-      <c r="X13" s="17">
+      <c r="X13" s="16">
         <v>2</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="16">
         <v>2</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="18">
         <v>2</v>
       </c>
-      <c r="AA13" s="17">
+      <c r="AA13" s="16">
         <v>2</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22" t="s">
-        <v>63</v>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
@@ -2209,114 +2161,114 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="14">
+    <row r="14" spans="1:36">
+      <c r="A14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13">
         <f t="shared" si="2"/>
         <v>-11583</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="15" t="str">
         <f>IF(F14=0,_xlfn.BASE($C$3-C8,2,16),"Не удовлетворяет ОДЗ")</f>
         <v>1101001011000001</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="16" t="str">
+      <c r="H14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="15" t="str">
         <f>MID($G14,I$3,1)</f>
         <v>1</v>
       </c>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="15" t="str">
         <f>MID($G14,J$3,1)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="18" t="str">
+      <c r="K14" s="17" t="str">
         <f>MID($G14,K$3,1)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="16" t="str">
+      <c r="L14" s="15" t="str">
         <f>MID($G14,L$3,1)</f>
         <v>1</v>
       </c>
-      <c r="M14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="18" t="str">
+      <c r="M14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="17" t="str">
         <f>MID($G14,N$3,1)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="16" t="str">
+      <c r="O14" s="15" t="str">
         <f>MID($G14,O$3,1)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="16" t="str">
+      <c r="P14" s="15" t="str">
         <f>MID($G14,P$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="18" t="str">
+      <c r="Q14" s="17" t="str">
         <f>MID($G14,Q$3,1)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="16" t="str">
+      <c r="R14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" s="15" t="str">
         <f>MID($G14,S$3,1)</f>
         <v>1</v>
       </c>
-      <c r="T14" s="18" t="str">
+      <c r="T14" s="17" t="str">
         <f>MID($G14,T$3,1)</f>
         <v>1</v>
       </c>
-      <c r="U14" s="16" t="str">
+      <c r="U14" s="15" t="str">
         <f>MID($G14,U$3,1)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="16" t="str">
+      <c r="V14" s="15" t="str">
         <f>MID($G14,V$3,1)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="X14" s="16" t="str">
+      <c r="W14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="15" t="str">
         <f>MID($G14,X$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="16" t="str">
+      <c r="Y14" s="15" t="str">
         <f>MID($G14,Y$3,1)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="18" t="str">
+      <c r="Z14" s="17" t="str">
         <f>MID($G14,Z$3,1)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="16" t="str">
+      <c r="AA14" s="15" t="str">
         <f>MID($G14,AA$3,1)</f>
         <v>1</v>
       </c>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="22">
+      <c r="AD14" s="21">
         <f>IF(I14="0",1,-1)*(AA14*2^$AA$2+Z14*2^$Z$2+Y14*2^$Y$2+X14*2^$X$2+V14*2^$V$2+U14*2^$U$2+T14*2^$T$2+S14*2^$S$2+Q14*2^$Q$2+P14*2^$P$2+O14*2^$O$2+N14*2^$N$2+L14*2^$L$2+K14*2^$K$2+J14*2^$J$2)</f>
         <v>-21185</v>
       </c>
-      <c r="AE14" s="22" t="s">
-        <v>63</v>
+      <c r="AE14" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
@@ -2324,114 +2276,114 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="14">
+    <row r="15" spans="1:36">
+      <c r="A15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="13">
         <f t="shared" si="2"/>
         <v>-11473</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="15" t="str">
         <f>IF(F15=0,_xlfn.BASE($C$3-C9,2,16),"Не удовлетворяет ОДЗ")</f>
         <v>1101001100101111</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="16" t="str">
+      <c r="H15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="15" t="str">
         <f>MID($G15,I$3,1)</f>
         <v>1</v>
       </c>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="15" t="str">
         <f>MID($G15,J$3,1)</f>
         <v>1</v>
       </c>
-      <c r="K15" s="18" t="str">
+      <c r="K15" s="17" t="str">
         <f>MID($G15,K$3,1)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="15" t="str">
         <f>MID($G15,L$3,1)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="18" t="str">
+      <c r="M15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="17" t="str">
         <f>MID($G15,N$3,1)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="16" t="str">
+      <c r="O15" s="15" t="str">
         <f>MID($G15,O$3,1)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="16" t="str">
+      <c r="P15" s="15" t="str">
         <f>MID($G15,P$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="18" t="str">
+      <c r="Q15" s="17" t="str">
         <f>MID($G15,Q$3,1)</f>
         <v>1</v>
       </c>
-      <c r="R15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="16" t="str">
+      <c r="R15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="15" t="str">
         <f>MID($G15,S$3,1)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="18" t="str">
+      <c r="T15" s="17" t="str">
         <f>MID($G15,T$3,1)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="16" t="str">
+      <c r="U15" s="15" t="str">
         <f>MID($G15,U$3,1)</f>
         <v>1</v>
       </c>
-      <c r="V15" s="16" t="str">
+      <c r="V15" s="15" t="str">
         <f>MID($G15,V$3,1)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="X15" s="16" t="str">
+      <c r="W15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="15" t="str">
         <f>MID($G15,X$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Y15" s="16" t="str">
+      <c r="Y15" s="15" t="str">
         <f>MID($G15,Y$3,1)</f>
         <v>1</v>
       </c>
-      <c r="Z15" s="18" t="str">
+      <c r="Z15" s="17" t="str">
         <f>MID($G15,Z$3,1)</f>
         <v>1</v>
       </c>
-      <c r="AA15" s="16" t="str">
+      <c r="AA15" s="15" t="str">
         <f>MID($G15,AA$3,1)</f>
         <v>1</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="22">
+      <c r="AD15" s="21">
         <f>IF(I15="0",1,-1)*(AA15*2^$AA$2+Z15*2^$Z$2+Y15*2^$Y$2+X15*2^$X$2+V15*2^$V$2+U15*2^$U$2+T15*2^$T$2+S15*2^$S$2+Q15*2^$Q$2+P15*2^$P$2+O15*2^$O$2+N15*2^$N$2+L15*2^$L$2+K15*2^$K$2+J15*2^$J$2)</f>
         <v>-21295</v>
       </c>
-      <c r="AE15" s="22" t="s">
-        <v>63</v>
+      <c r="AE15" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -2439,7 +2391,7 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2477,7 +2429,7 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2566,7 +2518,7 @@
       <c r="AI17" s="4"/>
       <c r="AJ17" s="5"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2578,82 +2530,82 @@
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA18" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AC18" s="7"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH18" s="7">
         <f>C4</f>
         <v>10299</v>
       </c>
       <c r="AI18" s="7"/>
-      <c r="AJ18" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2662,92 +2614,92 @@
       <c r="F19" s="1"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC19" s="7"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH19" s="7">
         <f>C5</f>
         <v>21882</v>
       </c>
       <c r="AI19" s="7"/>
-      <c r="AJ19" s="8"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="20">
+      <c r="AJ19" s="24"/>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="19">
         <v>-32768</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <f>65536/2-1</f>
         <v>32767</v>
       </c>
@@ -2756,8 +2708,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="9" t="s">
-        <v>51</v>
+      <c r="I20" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -2782,16 +2734,16 @@
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG20" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="AG20" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="AH20" s="7"/>
       <c r="AI20" s="7"/>
-      <c r="AJ20" s="8"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ20" s="24"/>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2818,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O21" s="7">
         <f t="shared" si="7"/>
@@ -2837,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T21" s="7">
         <f t="shared" si="7"/>
@@ -2856,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y21" s="7">
         <f t="shared" si="7"/>
@@ -2874,11 +2826,11 @@
         <f>MOD(AB18+AB19+AB17,2)</f>
         <v>1</v>
       </c>
-      <c r="AC21" s="25">
+      <c r="AC21" s="23">
         <v>2</v>
       </c>
       <c r="AD21" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE21" s="7">
         <f>(AB21*2^0+AA21*2^1+Z21*2^2+Y21*2^3+W21*2^4+V21*2^5+U21*2^6+T21*2^7+R21*2^8+Q21*2^9+P21*2^10+O21*2^11+M21*2^12+L21*2^13+K21*2^14)*IF(J21=0,1,-1)</f>
@@ -2891,9 +2843,9 @@
         <v>32181</v>
       </c>
       <c r="AI21" s="7"/>
-      <c r="AJ21" s="8"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ21" s="24"/>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2929,77 +2881,77 @@
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
       <c r="AI22" s="7"/>
-      <c r="AJ22" s="10"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ22" s="9"/>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="12">
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="11">
         <f>I17</f>
         <v>0</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="12">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="11">
         <f>IF(MOD(AB21+AA21+Z21+Y21+W21+V21+U21+T21,2)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q23" s="12">
+      <c r="O23" s="11"/>
+      <c r="P23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="11">
         <f>W17</f>
         <v>1</v>
       </c>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12" t="s">
+      <c r="R23" s="11"/>
+      <c r="S23" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23" s="11">
+        <f>IF(AE21=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="12">
-        <f>IF(AE21=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W23" s="12">
+      <c r="W23" s="11">
         <f>J21</f>
         <v>0</v>
       </c>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12" t="s">
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z23" s="12">
+      <c r="Z23" s="11">
         <f>IF(K17+K18+K19&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="13"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="12"/>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3037,7 +2989,7 @@
       <c r="AI24" s="4"/>
       <c r="AJ24" s="5"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3126,7 +3078,7 @@
       <c r="AI25" s="4"/>
       <c r="AJ25" s="5"/>
     </row>
-    <row r="26" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="14.45" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3134,86 +3086,86 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S26" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W26" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH26" s="7">
         <f>C5</f>
         <v>21882</v>
       </c>
       <c r="AI26" s="7"/>
-      <c r="AJ26" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ26" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3222,85 +3174,85 @@
       <c r="F27" s="1"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y27" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AG27" s="7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AH27" s="7">
         <f>C6</f>
         <v>32181</v>
       </c>
       <c r="AI27" s="7"/>
-      <c r="AJ27" s="8"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ27" s="24"/>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3309,8 +3261,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="9" t="s">
-        <v>51</v>
+      <c r="I28" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
@@ -3335,16 +3287,16 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG28" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="AG28" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="AH28" s="7"/>
       <c r="AI28" s="7"/>
-      <c r="AJ28" s="8"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ28" s="24"/>
+    </row>
+    <row r="29" spans="1:36">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3371,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O29" s="7">
         <f t="shared" ref="O29:R29" si="13">MOD(O26+O27+O25,2)</f>
@@ -3390,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T29" s="7">
         <f t="shared" ref="T29:W29" si="14">MOD(T26+T27+T25,2)</f>
@@ -3409,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y29" s="7">
         <f t="shared" ref="Y29:AA29" si="15">MOD(Y26+Y27+Y25,2)</f>
@@ -3429,7 +3381,7 @@
       </c>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE29" s="7">
         <f>(AB29*2^0+AA29*2^1+Z29*2^2+Y29*2^3+W29*2^4+V29*2^5+U29*2^6+T29*2^7+R29*2^8+Q29*2^9+P29*2^10+O29*2^11+M29*2^12+L29*2^13+K29*2^14)*IF(J29=0,1,-1)</f>
@@ -3442,9 +3394,9 @@
         <v>54063</v>
       </c>
       <c r="AI29" s="7"/>
-      <c r="AJ29" s="8"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ29" s="24"/>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3480,77 +3432,77 @@
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
       <c r="AI30" s="7"/>
-      <c r="AJ30" s="10"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ30" s="9"/>
+    </row>
+    <row r="31" spans="1:36">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" s="12">
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="11">
         <f>I25</f>
         <v>0</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N31" s="12">
+      <c r="L31" s="11"/>
+      <c r="M31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="11">
         <f>IF(MOD(AB29+AA29+Z29+Y29+W29+V29+U29+T29,2)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="12">
+      <c r="O31" s="11"/>
+      <c r="P31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="11">
         <f>W25</f>
         <v>0</v>
       </c>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12" t="s">
+      <c r="R31" s="11"/>
+      <c r="S31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T31" s="11">
+        <f>IF(AE29=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T31" s="12">
-        <f>IF(AE29=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W31" s="12">
+      <c r="W31" s="11">
         <f>J29</f>
         <v>1</v>
       </c>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12" t="s">
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z31" s="12">
+      <c r="Z31" s="11">
         <f>IF(K25+K26+K27&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="13"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="12"/>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3588,7 +3540,7 @@
       <c r="AI32" s="4"/>
       <c r="AJ32" s="5"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3677,7 +3629,7 @@
       <c r="AI33" s="4"/>
       <c r="AJ33" s="5"/>
     </row>
-    <row r="34" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="14.45" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3685,86 +3637,86 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T34" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA34" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB34" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC34" s="7"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AH34" s="7">
         <f>C5</f>
         <v>21882</v>
       </c>
       <c r="AI34" s="7"/>
-      <c r="AJ34" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ34" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3773,85 +3725,85 @@
       <c r="F35" s="1"/>
       <c r="G35" s="6"/>
       <c r="H35" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y35" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA35" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AB35" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AC35" s="7"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
       <c r="AF35" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AG35" s="7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AH35" s="7">
         <f>C10</f>
         <v>-10299</v>
       </c>
       <c r="AI35" s="7"/>
-      <c r="AJ35" s="8"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ35" s="24"/>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3860,8 +3812,8 @@
       <c r="F36" s="1"/>
       <c r="G36" s="6"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="9" t="s">
-        <v>51</v>
+      <c r="I36" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -3886,16 +3838,16 @@
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG36" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="AG36" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="AH36" s="7"/>
       <c r="AI36" s="7"/>
-      <c r="AJ36" s="8"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ36" s="24"/>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3922,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O37" s="7">
         <f t="shared" ref="O37:R37" si="21">MOD(O34+O35+O33,2)</f>
@@ -3941,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T37" s="7">
         <f t="shared" ref="T37:W37" si="22">MOD(T34+T35+T33,2)</f>
@@ -3960,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y37" s="7">
         <f t="shared" ref="Y37:AA37" si="23">MOD(Y34+Y35+Y33,2)</f>
@@ -3980,7 +3932,7 @@
       </c>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE37" s="7">
         <f>(AB37*2^0+AA37*2^1+Z37*2^2+Y37*2^3+W37*2^4+V37*2^5+U37*2^6+T37*2^7+R37*2^8+Q37*2^9+P37*2^10+O37*2^11+M37*2^12+L37*2^13+K37*2^14)*IF(J37=0,1,-1)</f>
@@ -3993,9 +3945,9 @@
         <v>11583</v>
       </c>
       <c r="AI37" s="7"/>
-      <c r="AJ37" s="8"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ37" s="24"/>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4031,77 +3983,77 @@
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
       <c r="AI38" s="7"/>
-      <c r="AJ38" s="10"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ38" s="9"/>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" s="12">
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="11">
         <f>I33</f>
         <v>1</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N39" s="12">
+      <c r="L39" s="11"/>
+      <c r="M39" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N39" s="11">
         <f>IF(MOD(AB37+AA37+Z37+Y37+W37+V37+U37+T37,2)=0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q39" s="12">
+      <c r="O39" s="11"/>
+      <c r="P39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q39" s="11">
         <f>W33</f>
         <v>0</v>
       </c>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12" t="s">
+      <c r="R39" s="11"/>
+      <c r="S39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T39" s="11">
+        <f>IF(AE37=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T39" s="12">
-        <f>IF(AE37=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W39" s="12">
+      <c r="W39" s="11">
         <f>J37</f>
         <v>0</v>
       </c>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12" t="s">
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z39" s="12">
+      <c r="Z39" s="11">
         <f>IF(K33+K34+K35&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12"/>
-      <c r="AH39" s="12"/>
-      <c r="AI39" s="12"/>
-      <c r="AJ39" s="13"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="12"/>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4139,7 +4091,7 @@
       <c r="AI40" s="4"/>
       <c r="AJ40" s="5"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4228,7 +4180,7 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="5"/>
     </row>
-    <row r="42" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="14.45" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4236,86 +4188,86 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="6" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="X42" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y42" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Z42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA42" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AB42" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AC42" s="7"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AH42" s="7">
         <f>C10</f>
         <v>-10299</v>
       </c>
       <c r="AI42" s="7"/>
-      <c r="AJ42" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ42" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4324,85 +4276,85 @@
       <c r="F43" s="1"/>
       <c r="G43" s="6"/>
       <c r="H43" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="X43" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y43" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Z43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA43" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB43" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC43" s="7"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
       <c r="AF43" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AG43" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AH43" s="7">
         <f>C11</f>
         <v>-21882</v>
       </c>
       <c r="AI43" s="7"/>
-      <c r="AJ43" s="8"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ43" s="24"/>
+    </row>
+    <row r="44" spans="1:36">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4411,8 +4363,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="6"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="9" t="s">
-        <v>51</v>
+      <c r="I44" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -4437,16 +4389,16 @@
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
       <c r="AF44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG44" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="AG44" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
-      <c r="AJ44" s="8"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ44" s="24"/>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4456,7 +4408,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" ref="J45:M45" si="28">MOD(J42+J43+J41,2)</f>
@@ -4475,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O45" s="7">
         <f t="shared" ref="O45:R45" si="29">MOD(O42+O43+O41,2)</f>
@@ -4494,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T45" s="7">
         <f t="shared" ref="T45:W45" si="30">MOD(T42+T43+T41,2)</f>
@@ -4513,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y45" s="7">
         <f t="shared" ref="Y45:AA45" si="31">MOD(Y42+Y43+Y41,2)</f>
@@ -4541,9 +4493,9 @@
         <v>-32181</v>
       </c>
       <c r="AI45" s="7"/>
-      <c r="AJ45" s="8"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ45" s="24"/>
+    </row>
+    <row r="46" spans="1:36">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4553,7 +4505,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J46" s="7">
         <f>J45</f>
@@ -4624,7 +4576,7 @@
       </c>
       <c r="AC46" s="7"/>
       <c r="AD46" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE46" s="7">
         <f>(AB46*2^0+AA46*2^1+Z46*2^2+Y46*2^3+W46*2^4+V46*2^5+U46*2^6+T46*2^7+R46*2^8+Q46*2^9+P46*2^10+O46*2^11+M46*2^12+L46*2^13+K46*2^14)*IF(J46=0,1,-1)-1</f>
@@ -4634,77 +4586,77 @@
       <c r="AG46" s="7"/>
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
-      <c r="AJ46" s="10"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ46" s="9"/>
+    </row>
+    <row r="47" spans="1:36">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K47" s="12">
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="11">
         <f>I41</f>
         <v>1</v>
       </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N47" s="12">
+      <c r="L47" s="11"/>
+      <c r="M47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N47" s="11">
         <f>IF(MOD(AB45+AA45+Z45+Y45+W45+V45+U45+T45,2)=0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q47" s="12">
+      <c r="O47" s="11"/>
+      <c r="P47" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="11">
         <f>W41</f>
         <v>0</v>
       </c>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12" t="s">
+      <c r="R47" s="11"/>
+      <c r="S47" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T47" s="11">
+        <f>IF(AE46=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T47" s="12">
-        <f>IF(AE46=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W47" s="12">
+      <c r="W47" s="11">
         <f>J45</f>
         <v>1</v>
       </c>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12" t="s">
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z47" s="12">
+      <c r="Z47" s="11">
         <f>IF(K41+K42+K43&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="AA47" s="12"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="12"/>
-      <c r="AD47" s="12"/>
-      <c r="AE47" s="12"/>
-      <c r="AF47" s="12"/>
-      <c r="AG47" s="12"/>
-      <c r="AH47" s="12"/>
-      <c r="AI47" s="12"/>
-      <c r="AJ47" s="13"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="12"/>
+    </row>
+    <row r="48" spans="1:36">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4742,7 +4694,7 @@
       <c r="AI48" s="4"/>
       <c r="AJ48" s="5"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4831,7 +4783,7 @@
       <c r="AI49" s="4"/>
       <c r="AJ49" s="5"/>
     </row>
-    <row r="50" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" ht="14.45" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4839,86 +4791,86 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="6" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V50" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W50" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y50" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA50" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB50" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC50" s="7"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AH50" s="7">
         <f>C11</f>
         <v>-21882</v>
       </c>
       <c r="AI50" s="7"/>
-      <c r="AJ50" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ50" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4927,85 +4879,85 @@
       <c r="F51" s="1"/>
       <c r="G51" s="6"/>
       <c r="H51" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="U51" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="X51" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y51" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z51" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA51" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB51" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AC51" s="7"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
       <c r="AF51" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AG51" s="7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AH51" s="7">
         <f>C12</f>
         <v>-32181</v>
       </c>
       <c r="AI51" s="7"/>
-      <c r="AJ51" s="8"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ51" s="24"/>
+    </row>
+    <row r="52" spans="1:36">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5014,8 +4966,8 @@
       <c r="F52" s="1"/>
       <c r="G52" s="6"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="9" t="s">
-        <v>51</v>
+      <c r="I52" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -5040,16 +4992,16 @@
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
       <c r="AF52" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG52" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="AG52" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="AH52" s="7"/>
       <c r="AI52" s="7"/>
-      <c r="AJ52" s="8"/>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ52" s="24"/>
+    </row>
+    <row r="53" spans="1:36">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5076,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O53" s="7">
         <f t="shared" ref="O53:AG53" si="46">MOD(O50+O51+O49,2)</f>
@@ -5095,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T53" s="7">
         <f t="shared" ref="T53:AJ53" si="47">MOD(T50+T51+T49,2)</f>
@@ -5114,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="X53" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y53" s="7">
         <f t="shared" ref="Y53:AJ53" si="48">MOD(Y50+Y51+Y49,2)</f>
@@ -5134,7 +5086,7 @@
       </c>
       <c r="AC53" s="7"/>
       <c r="AD53" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE53" s="7">
         <f>(AB53*2^0+AA53*2^1+Z53*2^2+Y53*2^3+W53*2^4+V53*2^5+U53*2^6+T53*2^7+R53*2^8+Q53*2^9+P53*2^10+O53*2^11+M53*2^12+L53*2^13+K53*2^14)*IF(J53=0,1,-1)</f>
@@ -5147,9 +5099,9 @@
         <v>-54063</v>
       </c>
       <c r="AI53" s="7"/>
-      <c r="AJ53" s="8"/>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ53" s="24"/>
+    </row>
+    <row r="54" spans="1:36">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5185,77 +5137,77 @@
       <c r="AG54" s="7"/>
       <c r="AH54" s="7"/>
       <c r="AI54" s="7"/>
-      <c r="AJ54" s="10"/>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ54" s="9"/>
+    </row>
+    <row r="55" spans="1:36">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K55" s="12">
+      <c r="G55" s="10"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55" s="11">
         <f>I49</f>
         <v>1</v>
       </c>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N55" s="12">
+      <c r="L55" s="11"/>
+      <c r="M55" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N55" s="11">
         <f>IF(MOD(AB53+AA53+Z53+Y53+W53+V53+U53+T53,2)=0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q55" s="12">
+      <c r="O55" s="11"/>
+      <c r="P55" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="11">
         <f>W49</f>
         <v>1</v>
       </c>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12" t="s">
+      <c r="R55" s="11"/>
+      <c r="S55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T55" s="11">
+        <f>IF(AE53=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T55" s="12">
-        <f>IF(AE53=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W55" s="12">
+      <c r="W55" s="11">
         <f>J53</f>
         <v>0</v>
       </c>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12" t="s">
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z55" s="12">
+      <c r="Z55" s="11">
         <f>IF(K49+K50+K51&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="12"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
-      <c r="AF55" s="12"/>
-      <c r="AG55" s="12"/>
-      <c r="AH55" s="12"/>
-      <c r="AI55" s="12"/>
-      <c r="AJ55" s="13"/>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="12"/>
+    </row>
+    <row r="56" spans="1:36">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5293,7 +5245,7 @@
       <c r="AI56" s="4"/>
       <c r="AJ56" s="5"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5382,7 +5334,7 @@
       <c r="AI57" s="4"/>
       <c r="AJ57" s="5"/>
     </row>
-    <row r="58" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" ht="14.45" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5390,86 +5342,86 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="6" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T58" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="U58" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V58" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W58" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X58" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y58" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z58" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA58" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB58" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AC58" s="7"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
       <c r="AF58" s="7"/>
       <c r="AG58" s="7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH58" s="7">
         <f>C4</f>
         <v>10299</v>
       </c>
       <c r="AI58" s="7"/>
-      <c r="AJ58" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ58" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5478,85 +5430,85 @@
       <c r="F59" s="1"/>
       <c r="G59" s="6"/>
       <c r="H59" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T59" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U59" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W59" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="X59" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y59" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Z59" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA59" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AB59" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AC59" s="7"/>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
       <c r="AF59" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AG59" s="7" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AH59" s="7">
         <f>C11</f>
         <v>-21882</v>
       </c>
       <c r="AI59" s="7"/>
-      <c r="AJ59" s="8"/>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ59" s="24"/>
+    </row>
+    <row r="60" spans="1:36">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5565,8 +5517,8 @@
       <c r="F60" s="1"/>
       <c r="G60" s="6"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="9" t="s">
-        <v>51</v>
+      <c r="I60" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -5591,16 +5543,16 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
       <c r="AF60" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG60" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="AG60" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="AH60" s="7"/>
       <c r="AI60" s="7"/>
-      <c r="AJ60" s="8"/>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ60" s="24"/>
+    </row>
+    <row r="61" spans="1:36">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5610,7 +5562,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" ref="J61:AA61" si="53">MOD(J58+J59+J57,2)</f>
@@ -5629,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O61" s="7">
         <f t="shared" ref="O61:AG61" si="54">MOD(O58+O59+O57,2)</f>
@@ -5648,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T61" s="7">
         <f t="shared" ref="T61:AJ61" si="55">MOD(T58+T59+T57,2)</f>
@@ -5667,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y61" s="7">
         <f t="shared" ref="Y61:AJ61" si="56">MOD(Y58+Y59+Y57,2)</f>
@@ -5695,9 +5647,9 @@
         <v>-11583</v>
       </c>
       <c r="AI61" s="7"/>
-      <c r="AJ61" s="8"/>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ61" s="24"/>
+    </row>
+    <row r="62" spans="1:36">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5707,7 +5659,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="J62" s="7">
         <f>J61</f>
@@ -5778,7 +5730,7 @@
       </c>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE62" s="7">
         <f>(AB62*2^0+AA62*2^1+Z62*2^2+Y62*2^3+W62*2^4+V62*2^5+U62*2^6+T62*2^7+R62*2^8+Q62*2^9+P62*2^10+O62*2^11+M62*2^12+L62*2^13+K62*2^14)*IF(J62=0,1,-1)-1</f>
@@ -5788,77 +5740,77 @@
       <c r="AG62" s="7"/>
       <c r="AH62" s="7"/>
       <c r="AI62" s="7"/>
-      <c r="AJ62" s="10"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ62" s="9"/>
+    </row>
+    <row r="63" spans="1:36">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K63" s="12">
+      <c r="G63" s="10"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K63" s="11">
         <f>I57</f>
         <v>0</v>
       </c>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N63" s="12">
+      <c r="L63" s="11"/>
+      <c r="M63" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N63" s="11">
         <f>IF(MOD(AB61+AA61+Z61+Y61+W61+V61+U61+T61,2)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q63" s="12">
+      <c r="O63" s="11"/>
+      <c r="P63" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q63" s="11">
         <f>W57</f>
         <v>1</v>
       </c>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12" t="s">
+      <c r="R63" s="11"/>
+      <c r="S63" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T63" s="11">
+        <f>IF(AE62=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T63" s="12">
-        <f>IF(AE62=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W63" s="12">
+      <c r="W63" s="11">
         <f>J61</f>
         <v>1</v>
       </c>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12" t="s">
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z63" s="12">
+      <c r="Z63" s="11">
         <f>IF(K57+K58+K59&gt;1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="12"/>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="12"/>
-      <c r="AE63" s="12"/>
-      <c r="AF63" s="12"/>
-      <c r="AG63" s="12"/>
-      <c r="AH63" s="12"/>
-      <c r="AI63" s="12"/>
-      <c r="AJ63" s="13"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="12"/>
+    </row>
+    <row r="64" spans="1:36">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5896,7 +5848,7 @@
       <c r="AI64" s="4"/>
       <c r="AJ64" s="5"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5985,7 +5937,7 @@
       <c r="AI65" s="4"/>
       <c r="AJ65" s="5"/>
     </row>
-    <row r="66" spans="1:36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" ht="14.45" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5993,86 +5945,86 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="6" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S66" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T66" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U66" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V66" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="W66" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="X66" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y66" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Z66" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AA66" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AB66" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="7"/>
       <c r="AG66" s="7" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="AH66" s="7">
         <f>C14</f>
         <v>-11583</v>
       </c>
       <c r="AI66" s="7"/>
-      <c r="AJ66" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ66" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6081,85 +6033,85 @@
       <c r="F67" s="1"/>
       <c r="G67" s="6"/>
       <c r="H67" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S67" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="V67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="X67" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y67" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Z67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AA67" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AB67" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AC67" s="7"/>
       <c r="AD67" s="7"/>
       <c r="AE67" s="7"/>
       <c r="AF67" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AG67" s="7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AH67" s="7">
         <f>C6</f>
         <v>32181</v>
       </c>
       <c r="AI67" s="7"/>
-      <c r="AJ67" s="8"/>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ67" s="24"/>
+    </row>
+    <row r="68" spans="1:36">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6168,8 +6120,8 @@
       <c r="F68" s="1"/>
       <c r="G68" s="6"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="9" t="s">
-        <v>51</v>
+      <c r="I68" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -6194,16 +6146,16 @@
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG68" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="AG68" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="AH68" s="7"/>
       <c r="AI68" s="7"/>
-      <c r="AJ68" s="8"/>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ68" s="24"/>
+    </row>
+    <row r="69" spans="1:36">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6230,7 +6182,7 @@
         <v>1</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="O69" s="7">
         <f t="shared" ref="O69:AG69" si="73">MOD(O66+O67+O65,2)</f>
@@ -6249,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="S69" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="T69" s="7">
         <f t="shared" ref="T69:AJ69" si="74">MOD(T66+T67+T65,2)</f>
@@ -6268,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="X69" s="7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="Y69" s="7">
         <f t="shared" ref="Y69:AJ69" si="75">MOD(Y66+Y67+Y65,2)</f>
@@ -6288,7 +6240,7 @@
       </c>
       <c r="AC69" s="7"/>
       <c r="AD69" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE69" s="7">
         <f>(AB69*2^0+AA69*2^1+Z69*2^2+Y69*2^3+W69*2^4+V69*2^5+U69*2^6+T69*2^7+R69*2^8+Q69*2^9+P69*2^10+O69*2^11+M69*2^12+L69*2^13+K69*2^14)*IF(J69=0,1,-1)</f>
@@ -6301,9 +6253,9 @@
         <v>20598</v>
       </c>
       <c r="AI69" s="7"/>
-      <c r="AJ69" s="8"/>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ69" s="24"/>
+    </row>
+    <row r="70" spans="1:36">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6339,97 +6291,97 @@
       <c r="AG70" s="7"/>
       <c r="AH70" s="7"/>
       <c r="AI70" s="7"/>
-      <c r="AJ70" s="10"/>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AJ70" s="9"/>
+    </row>
+    <row r="71" spans="1:36">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K71" s="12">
+      <c r="G71" s="10"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K71" s="11">
         <f>I65</f>
         <v>1</v>
       </c>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N71" s="12">
+      <c r="L71" s="11"/>
+      <c r="M71" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N71" s="11">
         <f>IF(MOD(AB69+AA69+Z69+Y69+W69+V69+U69+T69,2)=0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q71" s="12">
+      <c r="O71" s="11"/>
+      <c r="P71" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q71" s="11">
         <f>W65</f>
         <v>0</v>
       </c>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12" t="s">
+      <c r="R71" s="11"/>
+      <c r="S71" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T71" s="11">
+        <f>IF(AE69=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T71" s="12">
-        <f>IF(AE69=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W71" s="12">
+      <c r="W71" s="11">
         <f>J69</f>
         <v>0</v>
       </c>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12" t="s">
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Z71" s="12">
+      <c r="Z71" s="11">
         <f>IF(K65+K66+K67&gt;1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="AA71" s="12"/>
-      <c r="AB71" s="12"/>
-      <c r="AC71" s="12"/>
-      <c r="AD71" s="12"/>
-      <c r="AE71" s="12"/>
-      <c r="AF71" s="12"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="12"/>
-      <c r="AI71" s="12"/>
-      <c r="AJ71" s="13"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
+      <c r="AJ71" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="AJ18:AJ21"/>
+    <mergeCell ref="AJ42:AJ45"/>
     <mergeCell ref="AJ26:AJ29"/>
     <mergeCell ref="AJ34:AJ37"/>
     <mergeCell ref="AJ50:AJ53"/>
     <mergeCell ref="AJ58:AJ61"/>
     <mergeCell ref="AJ66:AJ69"/>
-    <mergeCell ref="AJ18:AJ21"/>
-    <mergeCell ref="AJ42:AJ45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AA15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6453,7 +6405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
